--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sequence</t>
   </si>
   <si>
     <t xml:space="preserve">default_debit_account_id</t>
@@ -133,6 +136,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -218,22 +222,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,7 +257,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>5</v>
@@ -264,150 +268,168 @@
       <c r="I1" s="0" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>10</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>1</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="J2" s="0" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>15</v>
+        <v>22</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -40,6 +40,9 @@
     <t xml:space="preserve">default_debit_account_id</t>
   </si>
   <si>
+    <t xml:space="preserve">default_credit_account_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">display_on_footer</t>
   </si>
   <si>
@@ -64,9 +67,6 @@
     <t xml:space="preserve">z0bug.coa_180011</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180002</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_1</t>
   </si>
   <si>
@@ -85,9 +85,6 @@
     <t xml:space="preserve">z0bug.coa_180012</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180003</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_2</t>
   </si>
   <si>
@@ -95,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">Miscellaneous Operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MISC</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.sale</t>
@@ -225,10 +225,10 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
@@ -260,36 +260,36 @@
         <v>5</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>14</v>
@@ -315,7 +315,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>10</v>
@@ -324,13 +324,13 @@
         <v>20</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J3" s="0" t="s">
         <v>16</v>
@@ -338,13 +338,13 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,6 +28,15 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">bank_acc_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank_account_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">code</t>
   </si>
   <si>
@@ -46,16 +55,28 @@
     <t xml:space="preserve">display_on_footer</t>
   </si>
   <si>
-    <t xml:space="preserve">bank_account_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">group_inv_lines_mode</t>
   </si>
   <si>
+    <t xml:space="preserve">is_wallet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main_bank_account_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank11_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank IT15A0123412345100000123456</t>
+    <t xml:space="preserve">B. Pop. Software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT15 A012 3412 3451 0000 0123 456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1</t>
   </si>
   <si>
     <t xml:space="preserve">BNK11</t>
@@ -67,16 +88,22 @@
     <t xml:space="preserve">z0bug.coa_180011</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.bank_company_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">\N</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank12_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Bank IT74B0246801011000000024680</t>
+    <t xml:space="preserve">B. Credito per Tutti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT74 B024 6801 0110 0000 0024 680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_bct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_2</t>
   </si>
   <si>
     <t xml:space="preserve">BNK12</t>
@@ -85,7 +112,52 @@
     <t xml:space="preserve">z0bug.coa_180012</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.bank_company_2</t>
+    <t xml:space="preserve">z0bug.bank13_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT26A0123412345990000123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_152220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio Anticipi B. Pop. Soft.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT82B0123412345991000123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank15_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio Anticipi Estero BCT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT58C0246801011991000245680</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK15</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.misc</t>
@@ -131,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -152,6 +224,25 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -196,8 +287,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -222,22 +333,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.33"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,10 +361,10 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
@@ -271,165 +385,339 @@
       <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L2" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
       <c r="H3" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>16</v>
+      <c r="L3" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>35</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>29</v>
+      <c r="I9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t xml:space="preserve">id</t>
   </si>
   <si>
+    <t xml:space="preserve">_requirements</t>
+  </si>
+  <si>
     <t xml:space="preserve">name</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t xml:space="preserve">main_bank_account_id</t>
   </si>
   <si>
+    <t xml:space="preserve">update_posted</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank11_journal</t>
   </si>
   <si>
@@ -163,16 +169,19 @@
     <t xml:space="preserve">z0bug.misc</t>
   </si>
   <si>
-    <t xml:space="preserve">Miscellaneous Operations</t>
+    <t xml:space="preserve">Operazioni varie</t>
   </si>
   <si>
     <t xml:space="preserve">MISC</t>
   </si>
   <si>
+    <t xml:space="preserve">general</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.sale</t>
   </si>
   <si>
-    <t xml:space="preserve">Customer Invoices</t>
+    <t xml:space="preserve">Fatture di vendita</t>
   </si>
   <si>
     <t xml:space="preserve">INV</t>
@@ -187,13 +196,46 @@
     <t xml:space="preserve">z0bug.purchase</t>
   </si>
   <si>
-    <t xml:space="preserve">Vendor Bills</t>
+    <t xml:space="preserve">Fatture di acquisto</t>
   </si>
   <si>
     <t xml:space="preserve">BILL</t>
   </si>
   <si>
     <t xml:space="preserve">purchase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_misc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_inv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_bill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_arc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autofatture reverse charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_gc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v==10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giroconti tecnici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_490050</t>
   </si>
 </sst>
 </file>
@@ -333,25 +375,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -361,13 +407,13 @@
       <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="0" t="s">
@@ -391,333 +437,565 @@
       <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="E2" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>29</v>
-      </c>
       <c r="J3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H4" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="J4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>14</v>
+      <c r="M4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J5" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>14</v>
+      <c r="M5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>44</v>
       </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="F6" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="H6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="J6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>23</v>
+      <c r="M6" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="6" t="n">
+        <v>50</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="0" t="s">
-        <v>22</v>
+      <c r="J7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>51</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="J8" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="H11" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="I11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M11" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="0" t="n">
+      <c r="P11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L9" s="0" t="s">
-        <v>53</v>
+      <c r="J12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -73,7 +73,7 @@
     <t xml:space="preserve">z0bug.bank11_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">B. Pop. Software</t>
+    <t xml:space="preserve">B. Pop. Software (IT15*456)</t>
   </si>
   <si>
     <t xml:space="preserve">IT15 A012 3412 3451 0000 0123 456</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">z0bug.bank12_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">B. Credito per Tutti</t>
+    <t xml:space="preserve">B. Credito per Tutti (IT74*680)</t>
   </si>
   <si>
     <t xml:space="preserve">IT74 B024 6801 0110 0000 0024 680</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">z0bug.bank13_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft.</t>
+    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft. (IT15*456/IT26*456)</t>
   </si>
   <si>
     <t xml:space="preserve">IT26A0123412345990000123456</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">z0bug.bank14_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio Anticipi B. Pop. Soft.</t>
+    <t xml:space="preserve">Portafoglio Anticipi B. Pop. Soft. (IT15*456/IT82*456)</t>
   </si>
   <si>
     <t xml:space="preserve">IT82B0123412345991000123456</t>
@@ -154,7 +154,7 @@
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio Anticipi Estero BCT</t>
+    <t xml:space="preserve">Portafoglio Anticipi Estero BCT (IT74*680/IT58*680)</t>
   </si>
   <si>
     <t xml:space="preserve">IT58C0246801011991000245680</t>
@@ -166,7 +166,7 @@
     <t xml:space="preserve">BNK15</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.misc</t>
+    <t xml:space="preserve">z0bug.jou_misc</t>
   </si>
   <si>
     <t xml:space="preserve">Operazioni varie</t>
@@ -178,7 +178,7 @@
     <t xml:space="preserve">general</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.sale</t>
+    <t xml:space="preserve">z0bug.jou_inv</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di vendita</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">account</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.purchase</t>
+    <t xml:space="preserve">z0bug.jou_bill</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di acquisto</t>
@@ -205,15 +205,6 @@
     <t xml:space="preserve">purchase</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_misc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.jou_inv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.jou_bill</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.jou_arc</t>
   </si>
   <si>
@@ -236,6 +227,24 @@
   </si>
   <si>
     <t xml:space="preserve">z0bug.coa_490050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_ncc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note credito a clienti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.jou_ncf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note credito da fornitori</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCF</t>
   </si>
 </sst>
 </file>
@@ -375,17 +384,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I:I"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.16"/>
@@ -395,9 +404,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -801,7 +810,7 @@
         <v>61</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>24</v>
@@ -812,26 +821,20 @@
       <c r="F10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I10" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
+      <c r="G10" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>1</v>
@@ -839,10 +842,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>65</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>24</v>
@@ -854,22 +860,22 @@
         <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>56</v>
@@ -880,10 +886,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>24</v>
@@ -895,13 +901,13 @@
         <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>24</v>
@@ -921,10 +927,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>24</v>
@@ -936,65 +942,27 @@
         <v>24</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L13" s="6" t="n">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>56</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="L14" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">bank</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180011</t>
+    <t xml:space="preserve">z0bug.coa_180003</t>
   </si>
   <si>
     <t xml:space="preserve">\N</t>
@@ -115,13 +115,13 @@
     <t xml:space="preserve">BNK12</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180012</t>
+    <t xml:space="preserve">z0bug.coa_180004</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank13_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft. (IT15*456/IT26*456)</t>
+    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft. (IT15*456)</t>
   </si>
   <si>
     <t xml:space="preserve">IT26A0123412345990000123456</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">BNK13</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_152220</t>
+    <t xml:space="preserve">z0bug.coa_180005</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
@@ -151,6 +151,9 @@
     <t xml:space="preserve">BNK14</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_180006</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
@@ -164,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">BNK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_180007</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.jou_misc</t>
@@ -251,8 +257,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -338,7 +345,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,7 +366,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -387,26 +398,27 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="46.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="32.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="21.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="13.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.64"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,7 +508,7 @@
       <c r="M2" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -537,7 +549,7 @@
       <c r="M3" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="P3" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -578,13 +590,13 @@
       <c r="M4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="P4" s="5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -614,10 +626,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -625,34 +637,34 @@
       <c r="M5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N5" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="P5" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>22</v>
@@ -661,10 +673,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -672,297 +684,297 @@
       <c r="M6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="N6" s="6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="P6" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="6" t="n">
+      <c r="D7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="J7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="6" t="s">
+      <c r="J8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P8" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="6" t="s">
+      <c r="J9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P9" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P9" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L10" s="6" t="n">
+      <c r="L10" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>51</v>
+        <v>69</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="6" t="n">
+        <v>70</v>
+      </c>
+      <c r="L11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P11" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="6" t="s">
+      <c r="J12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P12" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="s">
+      <c r="J13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="P13" s="5" t="n">
         <v>1</v>
       </c>
     </row>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -76,7 +76,7 @@
     <t xml:space="preserve">B. Pop. Software (IT15*456)</t>
   </si>
   <si>
-    <t xml:space="preserve">IT15 A012 3412 3451 0000 0123 456</t>
+    <t xml:space="preserve">\N</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_bps</t>
@@ -94,18 +94,12 @@
     <t xml:space="preserve">z0bug.coa_180003</t>
   </si>
   <si>
-    <t xml:space="preserve">\N</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank12_journal</t>
   </si>
   <si>
     <t xml:space="preserve">B. Credito per Tutti (IT74*680)</t>
   </si>
   <si>
-    <t xml:space="preserve">IT74 B024 6801 0110 0000 0024 680</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_bct</t>
   </si>
   <si>
@@ -124,9 +118,6 @@
     <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft. (IT15*456)</t>
   </si>
   <si>
-    <t xml:space="preserve">IT26A0123412345990000123456</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_1a</t>
   </si>
   <si>
@@ -142,9 +133,6 @@
     <t xml:space="preserve">Portafoglio Anticipi B. Pop. Soft. (IT15*456/IT82*456)</t>
   </si>
   <si>
-    <t xml:space="preserve">IT82B0123412345991000123456</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_1b</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t xml:space="preserve">Portafoglio Anticipi Estero BCT (IT74*680/IT58*680)</t>
   </si>
   <si>
-    <t xml:space="preserve">IT58C0246801011991000245680</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank_company_2a</t>
   </si>
   <si>
@@ -184,13 +169,13 @@
     <t xml:space="preserve">general</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_inv</t>
+    <t xml:space="preserve">z0bug.jou_fatt|inv</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di vendita</t>
   </si>
   <si>
-    <t xml:space="preserve">INV</t>
+    <t xml:space="preserve">FATT</t>
   </si>
   <si>
     <t xml:space="preserve">sale</t>
@@ -199,13 +184,13 @@
     <t xml:space="preserve">account</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_bill</t>
+    <t xml:space="preserve">z0bug.jou_acq|bill</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di acquisto</t>
   </si>
   <si>
-    <t xml:space="preserve">BILL</t>
+    <t xml:space="preserve">ACQ</t>
   </si>
   <si>
     <t xml:space="preserve">purchase</t>
@@ -370,11 +355,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -398,10 +383,10 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C6"/>
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
@@ -506,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
@@ -514,22 +499,22 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="G3" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>30</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>22</v>
@@ -538,16 +523,16 @@
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P3" s="5" t="n">
         <v>1</v>
@@ -555,22 +540,22 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>22</v>
@@ -579,21 +564,21 @@
         <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="5" t="n">
@@ -602,22 +587,22 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>22</v>
@@ -626,21 +611,21 @@
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="5" t="n">
@@ -649,22 +634,22 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>22</v>
@@ -673,22 +658,22 @@
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="N6" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="P6" s="5" t="n">
         <v>1</v>
@@ -696,40 +681,40 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>24</v>
+      <c r="J7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>1</v>
@@ -737,40 +722,40 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>50</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>24</v>
+      <c r="J8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>1</v>
@@ -778,40 +763,40 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="J9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>24</v>
+      <c r="J9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P9" s="5" t="n">
         <v>1</v>
@@ -819,34 +804,34 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P10" s="5" t="n">
         <v>1</v>
@@ -854,43 +839,43 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="7" t="n">
+        <v>65</v>
+      </c>
+      <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>1</v>
@@ -898,40 +883,40 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="J12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>24</v>
+      <c r="J12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P12" s="5" t="n">
         <v>1</v>
@@ -939,40 +924,40 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>24</v>
+        <v>70</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>24</v>
+      <c r="J13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>1</v>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">z0bug.bank13_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio RiBA B. Pop. Soft. (IT15*456)</t>
+    <t xml:space="preserve">Portafoglio RiBA e SDD – B. Pop. Soft. (IT15*456)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_company_1a</t>
@@ -124,13 +124,13 @@
     <t xml:space="preserve">BNK13</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180005</t>
+    <t xml:space="preserve">z0bug.coa_152210</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio Anticipi B. Pop. Soft. (IT15*456/IT82*456)</t>
+    <t xml:space="preserve">Portafoglio Anticipi – B. Pop. Soft. (IT15*456/IT82*456)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_company_1b</t>
@@ -139,13 +139,10 @@
     <t xml:space="preserve">BNK14</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180006</t>
-  </si>
-  <si>
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
-    <t xml:space="preserve">Portafoglio Anticipi Estero BCT (IT74*680/IT58*680)</t>
+    <t xml:space="preserve">Portafoglio Anticipi Estero – BCT (IT74*680/IT58*680)</t>
   </si>
   <si>
     <t xml:space="preserve">z0bug.bank_company_2a</t>
@@ -154,10 +151,7 @@
     <t xml:space="preserve">BNK15</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.coa_180007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.jou_misc</t>
+    <t xml:space="preserve">external.MISC|VARIE</t>
   </si>
   <si>
     <t xml:space="preserve">Operazioni varie</t>
@@ -169,13 +163,13 @@
     <t xml:space="preserve">general</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_fatt|inv</t>
+    <t xml:space="preserve">external.FAT|FATT|INV</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di vendita</t>
   </si>
   <si>
-    <t xml:space="preserve">FATT</t>
+    <t xml:space="preserve">FAT</t>
   </si>
   <si>
     <t xml:space="preserve">sale</t>
@@ -184,7 +178,7 @@
     <t xml:space="preserve">account</t>
   </si>
   <si>
-    <t xml:space="preserve">z0bug.jou_acq|bill</t>
+    <t xml:space="preserve">external.ACQ|FATTU|BILL</t>
   </si>
   <si>
     <t xml:space="preserve">Fatture di acquisto</t>
@@ -383,14 +377,14 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.16"/>
@@ -611,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -634,10 +628,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>41</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>18</v>
@@ -646,10 +640,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>22</v>
@@ -658,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -681,25 +675,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="H7" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>7</v>
@@ -722,25 +716,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>5</v>
@@ -755,7 +749,7 @@
         <v>18</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>1</v>
@@ -763,25 +757,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="H9" s="0" t="s">
         <v>55</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>57</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>6</v>
@@ -796,7 +790,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P9" s="5" t="n">
         <v>1</v>
@@ -804,25 +798,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="H10" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -831,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P10" s="5" t="n">
         <v>1</v>
@@ -839,43 +833,43 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="D11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>64</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>1</v>
@@ -883,25 +877,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>68</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>15</v>
@@ -916,7 +910,7 @@
         <v>18</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P12" s="5" t="n">
         <v>1</v>
@@ -924,25 +918,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>71</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>16</v>
@@ -957,7 +951,7 @@
         <v>18</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>1</v>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -70,6 +70,24 @@
     <t xml:space="preserve">update_posted</t>
   </si>
   <si>
+    <t xml:space="preserve">default_bank_expenses_account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice_financing_evaluate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice_financing_percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sezionale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portafolgio_sbf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limite_effetti_sbf</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank11_journal</t>
   </si>
   <si>
@@ -94,6 +112,9 @@
     <t xml:space="preserve">z0bug.coa_180003</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_731140</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank12_journal</t>
   </si>
   <si>
@@ -127,6 +148,9 @@
     <t xml:space="preserve">z0bug.coa_152210</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_180005</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank14_journal</t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t xml:space="preserve">BNK14</t>
   </si>
   <si>
+    <t xml:space="preserve">invoice_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_180006</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.bank15_journal</t>
   </si>
   <si>
@@ -149,6 +179,12 @@
   </si>
   <si>
     <t xml:space="preserve">BNK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxable_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_180007</t>
   </si>
   <si>
     <t xml:space="preserve">external.MISC|VARIE</t>
@@ -374,13 +410,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5:K6"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V6" activeCellId="0" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.00390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
@@ -398,6 +438,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="28.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -449,374 +495,455 @@
       <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="H3" s="0" t="s">
-        <v>22</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P3" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="V4" s="0" t="n">
+        <v>5000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P5" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="0" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P6" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="V6" s="0" t="n">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>7</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P7" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>6</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P9" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>20</v>
@@ -825,136 +952,148 @@
         <v>0</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P10" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P12" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>55</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>16</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="P13" s="5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/z0bug_odoo/data/account_journal.xlsx
+++ b/z0bug_odoo/data/account_journal.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="90">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -85,6 +85,9 @@
     <t xml:space="preserve">portafolgio_sbf</t>
   </si>
   <si>
+    <t xml:space="preserve">effetti_allo_sconto</t>
+  </si>
+  <si>
     <t xml:space="preserve">limite_effetti_sbf</t>
   </si>
   <si>
@@ -148,43 +151,64 @@
     <t xml:space="preserve">z0bug.coa_152210</t>
   </si>
   <si>
+    <t xml:space="preserve">z0bug.coa_180008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_152220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank14_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio Anticipi – B. Pop. Soft. (IT15*456/IT82*456)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">invoice_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_180006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank15_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portafoglio Anticipi Estero – BCT (IT74*680/IT58*680)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_2a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taxable_amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.coa_180007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank16_journal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banque Suisse (USD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_ch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z0bug.bank_company_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BNK16</t>
+  </si>
+  <si>
     <t xml:space="preserve">z0bug.coa_180005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank14_journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portafoglio Anticipi – B. Pop. Soft. (IT15*456/IT82*456)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_company_1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">invoice_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_180006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank15_journal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portafoglio Anticipi Estero – BCT (IT74*680/IT58*680)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.bank_company_2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BNK15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">taxable_amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">z0bug.coa_180007</t>
   </si>
   <si>
     <t xml:space="preserve">external.MISC|VARIE</t>
@@ -276,7 +300,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -316,6 +340,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -360,7 +389,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -393,6 +422,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,17 +447,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="topRight" activeCell="T1" activeCellId="0" sqref="T1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="V6" activeCellId="0" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.96"/>
@@ -439,11 +476,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="12.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="28.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="18.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="0" width="16.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -513,593 +550,652 @@
       <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="0" t="n">
         <v>5000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>80</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="U5" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="V5" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="0" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="7" t="n">
         <v>1</v>
       </c>
       <c r="O6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>30</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>100</v>
       </c>
       <c r="T6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="U6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="0" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>24</v>
+        <v>62</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N7" s="7"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>24</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>5</v>
+        <v>25</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>7</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="P8" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P9" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="L10" s="6" t="n">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P10" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>75</v>
-      </c>
       <c r="L11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P11" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>80</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P12" s="5" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I13" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="J13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="P13" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>24</v>
+      <c r="J14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normale"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normale"&amp;12Pagina &amp;P</oddFooter>
